--- a/Estimación PF.xlsx
+++ b/Estimación PF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs Sayra\2018-I\ASI 7\Segundo Corte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Puntos de Función" sheetId="1" r:id="rId1"/>
@@ -188,6 +188,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sayra</author>
+    <author>SALA 1.-54</author>
     <author/>
   </authors>
   <commentList>
@@ -239,7 +240,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1" shapeId="0">
+    <comment ref="C3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SALA 1.-54:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cuantos puntos de funcion puede implementar una persona al mes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,6 +275,31 @@
           </rPr>
           <t>horbath:
 Seleccionado por la empresa, generalme nte toma valores entre 50 y 75</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>SALA 1.-54:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+cantidad de hombre
+</t>
         </r>
       </text>
     </comment>
@@ -477,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -533,6 +583,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1316,6 +1379,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1610,7 +1769,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1819,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="14">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C3" s="15">
         <v>3</v>
@@ -1676,7 +1835,7 @@
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G7" si="0">B3*F3</f>
-        <v>148</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1684,7 +1843,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="14">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C4" s="15">
         <v>4</v>
@@ -1700,7 +1859,7 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,7 +1867,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="14">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C5" s="15">
         <v>3</v>
@@ -1724,7 +1883,7 @@
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1732,7 +1891,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="15">
         <v>7</v>
@@ -1748,7 +1907,7 @@
       </c>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1756,7 +1915,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
         <v>5</v>
@@ -1772,7 +1931,7 @@
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1781,7 +1940,7 @@
       </c>
       <c r="B8" s="27">
         <f>SUM(G3:G7)</f>
-        <v>775</v>
+        <v>479</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -5773,9 +5932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5813,7 +5972,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -5847,7 +6006,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
@@ -5881,7 +6040,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
         <v>4</v>
@@ -5898,7 +6057,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
         <v>5</v>
@@ -5928,7 +6087,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -5941,7 +6100,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -5993,7 +6152,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6018,7 +6177,7 @@
       <c r="B16" s="25"/>
       <c r="C16" s="5">
         <f>SUM(C2:C15)</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -6044,7 +6203,7 @@
       </c>
       <c r="C19" s="10">
         <f>'PF Ajustados'!B8:F8*(0.65+(0.01*'PF Ajustados'!C16))</f>
-        <v>3.6000000000000005</v>
+        <v>3.51</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -12930,8 +13089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12970,7 +13129,7 @@
       </c>
       <c r="E2" s="20">
         <f>'PF Ajustados'!C19</f>
-        <v>3.6000000000000005</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -12981,11 +13140,11 @@
         <v>62</v>
       </c>
       <c r="D3" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" s="21">
         <f>D3</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -12996,7 +13155,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="22">
         <v>4</v>
@@ -13012,9 +13171,9 @@
       <c r="D5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="21" t="e">
+      <c r="E5" s="21">
         <f>E2/E3</f>
-        <v>#DIV/0!</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -13027,9 +13186,9 @@
       <c r="D6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="21" t="e">
+      <c r="E6" s="21">
         <f>E5/E4</f>
-        <v>#DIV/0!</v>
+        <v>0.14624999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
